--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1384376.836058148</v>
+        <v>1489316.066233513</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10643632.89598292</v>
+        <v>10659950.34304355</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>111.0639119493539</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.9812949757285</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>42.42206642987885</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.30112502764845</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247041</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>196.1623266599244</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>47.44008375874784</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>36.86810533549455</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>42.78292969784943</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>362.4654100627721</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>190.4666355843601</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>43.04243904605909</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>3.559750570600383</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,16 +1350,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>212.4076860934766</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>160.1597912951069</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>95.12712756824324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>242.2547062148086</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171315</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2761,10 +2763,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>105.9893107373045</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2795,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>132.6315337216697</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>174.7683347992599</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>211.6773350344787</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>212.4287627768751</v>
       </c>
       <c r="W40" t="n">
-        <v>281.2250499486441</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3946,25 +3948,25 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>178.279871084294</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>1.799772605716619</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1384.846061372529</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1026.580362765779</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>640.7921101675342</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>229.8062053779267</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>3105.233036999167</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>890.9213886294034</v>
+        <v>2013.57636781303</v>
       </c>
       <c r="C4" t="n">
-        <v>721.9852057014965</v>
+        <v>1844.640184885123</v>
       </c>
       <c r="D4" t="n">
-        <v>571.8685662891608</v>
+        <v>1694.523545472787</v>
       </c>
       <c r="E4" t="n">
-        <v>423.9554727067676</v>
+        <v>1546.610451890394</v>
       </c>
       <c r="F4" t="n">
-        <v>277.0655252088573</v>
+        <v>1399.720504392484</v>
       </c>
       <c r="G4" t="n">
-        <v>109.3626885835762</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>109.3626885835762</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>2416.0174117868</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>2416.0174117868</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>2416.0174117868</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>2416.0174117868</v>
       </c>
       <c r="W4" t="n">
-        <v>1293.362432603173</v>
+        <v>2416.0174117868</v>
       </c>
       <c r="X4" t="n">
-        <v>1293.362432603173</v>
+        <v>2416.0174117868</v>
       </c>
       <c r="Y4" t="n">
-        <v>1072.569853459643</v>
+        <v>2195.22483264327</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816095</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872933</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923564</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230819</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740843</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723853</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400158</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926629</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926629</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2437.640120926629</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410102</v>
+        <v>2437.640120926629</v>
       </c>
       <c r="W5" t="n">
-        <v>2763.640912107148</v>
+        <v>2437.640120926629</v>
       </c>
       <c r="X5" t="n">
-        <v>2763.640912107148</v>
+        <v>2437.640120926629</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>2389.720844402641</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057903</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500115</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>298.3188265310616</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>801.9449557744465</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.0144869816385</v>
+        <v>220.1829694959101</v>
       </c>
       <c r="C7" t="n">
-        <v>201.0783040537316</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="D7" t="n">
-        <v>201.0783040537316</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800317</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.7159595531221</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020478</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1593.23103957162</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1396.602291731481</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1173.623810926216</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>884.5054734300539</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>629.8209852241671</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251686</v>
+        <v>629.8209852241671</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251686</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.0144869816385</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2325.505862906803</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1956.543345966392</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>1598.277647359641</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,19 +4804,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3133.215280614868</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3133.215280614868</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2802.152393271298</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2449.383738001183</v>
       </c>
       <c r="X8" t="n">
-        <v>2325.505862906803</v>
+        <v>2075.917979740103</v>
       </c>
       <c r="Y8" t="n">
-        <v>2325.505862906803</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4899,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>652.2346852641127</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C10" t="n">
-        <v>608.7574741064773</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218343</v>
@@ -4963,16 +4965,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1833.86838319895</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1612.101767768476</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621301</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621301</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X10" t="n">
-        <v>652.2346852641127</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y10" t="n">
-        <v>652.2346852641127</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5053,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C13" t="n">
         <v>929.7309773356194</v>
@@ -5194,55 +5196,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>929.7309773356194</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5275,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,13 +5299,13 @@
         <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5437,40 +5439,40 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
         <v>1729.097755135313</v>
@@ -5507,49 +5509,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2418.621364762389</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>2913.946970978148</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3511.3254586047</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5774,25 +5776,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>2418.621364762389</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>2913.946970978148</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M21" t="n">
-        <v>3511.3254586047</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N21" t="n">
-        <v>4138.923422159307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>4690.833152398594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2824.769373306004</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053499</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.37685307644</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420638</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3744.617138214751</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3455.199968177791</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3227.210417279774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3006.417838136244</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5986,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6011,25 +6013,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>448.1846595309957</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>943.5102657467545</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373306</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6178,19 +6180,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.759357061207</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1478.07486885532</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,28 +6214,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,16 +6244,16 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474785</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>2875.571313159221</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>2875.571313159221</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>2875.571313159221</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159221</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.68136566131</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.48526637619</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218388</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866302</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296626</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822165</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998109</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729144</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.430181389152</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098137</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650997</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.932614305902</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>4221.331149328843</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>3932.255922673041</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>3677.571434467154</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>3388.154264430194</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>3160.164713532176</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>2939.372134388646</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111692</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075785</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3227.225672628158</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>3058.289489700251</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2908.172850287915</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>2760.259756705522</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F31" t="n">
-        <v>2613.369809207612</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024107</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4690.833152398594</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>4401.757925742792</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>4147.073437536906</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3857.656267499945</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3629.666716601928</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3408.874137458398</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,22 +6779,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3342.53722908186</v>
+        <v>2757.723669558406</v>
       </c>
       <c r="C34" t="n">
-        <v>3173.601046153953</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="D34" t="n">
-        <v>3023.484406741617</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>2588.787486630499</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I34" t="n">
         <v>2337.686731866305</v>
@@ -6883,25 +6885,25 @@
         <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>4623.787448650996</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>4404.185983673938</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U34" t="n">
-        <v>4404.185983673938</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V34" t="n">
-        <v>4149.501495468051</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W34" t="n">
-        <v>3972.967823953647</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X34" t="n">
-        <v>3744.978273055629</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>3524.185693912099</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6934,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6962,13 +6964,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385792</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>3060.838905772771</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3658.217393399323</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4285.81535695393</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>4285.81535695393</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797189</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7159,13 @@
         <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797191</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7366,16 +7368,16 @@
         <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741513</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1399.536196722681</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>1171.546645824663</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.7540666811333</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7397,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7485,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7630,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7731,19 +7733,19 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589518</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>211.0329012241545</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154983</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>13.30196929556053</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>65.54986409393027</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>72.11969353038459</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>43.92976817443554</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>116.6691671648058</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>180.5336875992866</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>32.89260457059919</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>111.7546635373311</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>5.72811529280952</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>39.70888054695294</v>
       </c>
       <c r="W40" t="n">
-        <v>5.297948387946917</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.37549921168767</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>108.243127252297</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>932211.2066074915</v>
+        <v>940529.9051089906</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>932211.2066074915</v>
+        <v>940529.9051089906</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614296</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614296</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651772</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="L2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
@@ -26350,7 +26352,7 @@
         <v>504466.6248062539</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062536</v>
@@ -26363,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7.37990616926254e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>3.894519977620803e-10</v>
+        <v>192627.1404403373</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>4.781995812663809e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810786</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810789</v>
+        <v>136726.2736921023</v>
       </c>
       <c r="D4" t="n">
         <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1012051.815251917</v>
+        <v>-831264.7235426898</v>
       </c>
       <c r="C6" t="n">
-        <v>316692.9304756762</v>
+        <v>283487.0600332291</v>
       </c>
       <c r="D6" t="n">
-        <v>316692.9304756755</v>
+        <v>124065.7900353387</v>
       </c>
       <c r="E6" t="n">
-        <v>68594.43281823501</v>
+        <v>68594.43281823496</v>
       </c>
       <c r="F6" t="n">
-        <v>394006.8946255904</v>
+        <v>394006.8946255898</v>
       </c>
       <c r="G6" t="n">
-        <v>394006.8946255895</v>
+        <v>394006.8946255902</v>
       </c>
       <c r="H6" t="n">
-        <v>394006.8946255902</v>
+        <v>394006.8946255897</v>
       </c>
       <c r="I6" t="n">
-        <v>394006.8946255901</v>
+        <v>394006.89462559</v>
       </c>
       <c r="J6" t="n">
-        <v>176475.6922283127</v>
+        <v>226401.7168156074</v>
       </c>
       <c r="K6" t="n">
-        <v>394006.8946255901</v>
+        <v>394006.89462559</v>
       </c>
       <c r="L6" t="n">
-        <v>394006.89462559</v>
+        <v>345712.9246173993</v>
       </c>
       <c r="M6" t="n">
-        <v>308951.8666900783</v>
+        <v>308951.8666900784</v>
       </c>
       <c r="N6" t="n">
         <v>394006.8946255902</v>
       </c>
       <c r="O6" t="n">
-        <v>394006.89462559</v>
+        <v>394006.8946255902</v>
       </c>
       <c r="P6" t="n">
         <v>394006.89462559</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175397</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593298</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000395</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26802,19 +26804,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26957,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>155.7118084757586</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>300.4837908236001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>240.2596737416845</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27552,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>53.93035397995924</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27587,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>151.361335334089</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>153.0786420574886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>338.7978548973057</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>109.5658573110746</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>58.77464272172416</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>19.46496000948969</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>13.45133455526005</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>124.2043820525687</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>186.2092747608415</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29326,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29460,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>742.935485982477</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>595.3275373121714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>537.6437863443696</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543351</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,19 +32548,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.605272155109</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32567,13 +32569,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>344.6306853939237</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,16 +32800,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,25 +33022,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33181,7 +33183,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663259</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817577</v>
@@ -33260,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33497,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422586</v>
@@ -33509,13 +33511,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>514.6953762540926</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,10 +33733,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33746,13 +33748,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>270.4557004614704</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33968,7 +33970,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,10 +33979,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>209.9499448422518</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868571</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34205,25 +34207,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197783</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214699</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34451,22 +34453,22 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091751</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>508.7132618620049</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634696</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>116.4807223308547</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>611.5937738991437</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288382</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997605</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075003</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36215,13 +36217,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>206.7892464195648</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789214</v>
@@ -36668,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36756,7 +36758,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191356</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010452</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396396</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>372.0991318096482</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>136.4812930471402</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>71.39556506237764</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789214</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37853,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753338</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071396</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789214</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1489316.066233513</v>
+        <v>1485220.424728748</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>111.0639119493539</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>343.6990775316569</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>3.367844675690604</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -867,10 +867,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>43.30112502764845</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>237.9193059650779</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247041</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>47.44008375874784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>42.78292969784943</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>103.2588014327185</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>79.76470074482921</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>190.4666355843601</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.559750570600383</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>212.4076860934766</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U16" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>14.73874327217517</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>63.1628130171315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>18.7084378797731</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>211.6773350344787</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>149.9095691544923</v>
       </c>
       <c r="V40" t="n">
-        <v>212.4287627768751</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1753.808578312941</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="C2" t="n">
-        <v>1384.846061372529</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="D2" t="n">
-        <v>1026.580362765779</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>640.7921101675342</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>229.8062053779267</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1753.808578312941</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.808578312941</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="Y2" t="n">
-        <v>1753.808578312941</v>
+        <v>944.3110907974333</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2013.57636781303</v>
+        <v>604.0457357641855</v>
       </c>
       <c r="C4" t="n">
-        <v>1844.640184885123</v>
+        <v>604.0457357641855</v>
       </c>
       <c r="D4" t="n">
-        <v>1694.523545472787</v>
+        <v>604.0457357641855</v>
       </c>
       <c r="E4" t="n">
-        <v>1546.610451890394</v>
+        <v>456.1326421817923</v>
       </c>
       <c r="F4" t="n">
-        <v>1399.720504392484</v>
+        <v>309.242694683882</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936618</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878781</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2416.0174117868</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2416.0174117868</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>2416.0174117868</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>2416.0174117868</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>2416.0174117868</v>
+        <v>824.8383149077156</v>
       </c>
       <c r="X4" t="n">
-        <v>2416.0174117868</v>
+        <v>824.8383149077156</v>
       </c>
       <c r="Y4" t="n">
-        <v>2195.22483264327</v>
+        <v>604.0457357641855</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2003.121004338519</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.158487398107</v>
+        <v>1862.313924116173</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>1504.048225509423</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>1118.259972911178</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>707.2740681215707</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>291.5693178458596</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816095</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872933</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923564</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230819</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740843</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723853</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926629</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926629</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926629</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926629</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y5" t="n">
-        <v>2389.720844402641</v>
+        <v>2231.276441056585</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057903</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500115</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310616</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744465</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.1829694959101</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800317</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800317</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800317</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800317</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800317</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.7159595531221</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020478</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693238</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096592</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1593.23103957162</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1396.602291731481</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="T7" t="n">
-        <v>1173.623810926216</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="U7" t="n">
-        <v>884.5054734300539</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="V7" t="n">
-        <v>629.8209852241671</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="W7" t="n">
-        <v>629.8209852241671</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X7" t="n">
-        <v>401.8314343261497</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y7" t="n">
-        <v>401.8314343261497</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.318139675982</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.35562273557</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3133.215280614868</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3133.215280614868</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2802.152393271298</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2449.383738001183</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2075.917979740103</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.917979740103</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>403.1511359853714</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>234.2149530574645</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574645</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1833.86838319895</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1612.101767768476</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1322.998900894119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1322.998900894119</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1033.581730857159</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>805.5921799591413</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>584.7996008156111</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>738.7889117913853</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>929.7309773356194</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.963083580261</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>2418.621364762389</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>2913.946970978148</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>3511.3254586047</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>4138.923422159307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803938</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,46 +5971,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,34 +6241,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2875.571313159221</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2875.571313159221</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>2875.571313159221</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159221</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.68136566131</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.48526637619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218388</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822165</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650997</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430194</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>194.8007783998291</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,67 +6682,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6791,16 +6791,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558406</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630499</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D34" t="n">
-        <v>2588.787486630499</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>2588.787486630499</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2588.787486630499</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024107</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876693</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597624</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597624</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597624</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614391</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.547769317909</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589518</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
-        <v>211.0329012241545</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154983</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>13.30196929556053</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>131.695219374394</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7255247667961</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>116.6691671648058</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>121.5862749664508</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>5.72811529280952</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="V40" t="n">
-        <v>39.70888054695294</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>72.11969353038565</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="F2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="H2" t="n">
-        <v>504466.6248062535</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
         <v>504466.6248062536</v>
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>7.37990616926254e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403373</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819071</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,37 +26420,37 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921023</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810784</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="H4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831264.7235426898</v>
+        <v>-831264.7235426902</v>
       </c>
       <c r="C6" t="n">
-        <v>283487.0600332291</v>
+        <v>283487.06003323</v>
       </c>
       <c r="D6" t="n">
-        <v>124065.7900353387</v>
+        <v>124065.7900353378</v>
       </c>
       <c r="E6" t="n">
-        <v>68594.43281823496</v>
+        <v>68247.05356387795</v>
       </c>
       <c r="F6" t="n">
-        <v>394006.8946255898</v>
+        <v>393659.5153712331</v>
       </c>
       <c r="G6" t="n">
-        <v>394006.8946255902</v>
+        <v>393659.5153712329</v>
       </c>
       <c r="H6" t="n">
-        <v>394006.8946255897</v>
+        <v>393659.515371233</v>
       </c>
       <c r="I6" t="n">
-        <v>394006.89462559</v>
+        <v>393659.5153712328</v>
       </c>
       <c r="J6" t="n">
-        <v>226401.7168156074</v>
+        <v>226054.3375612505</v>
       </c>
       <c r="K6" t="n">
-        <v>394006.89462559</v>
+        <v>393659.5153712331</v>
       </c>
       <c r="L6" t="n">
-        <v>345712.9246173993</v>
+        <v>345365.5453630423</v>
       </c>
       <c r="M6" t="n">
-        <v>308951.8666900784</v>
+        <v>308604.4874357213</v>
       </c>
       <c r="N6" t="n">
-        <v>394006.8946255902</v>
+        <v>393659.5153712332</v>
       </c>
       <c r="O6" t="n">
-        <v>394006.8946255902</v>
+        <v>393659.5153712331</v>
       </c>
       <c r="P6" t="n">
-        <v>394006.89462559</v>
+        <v>393659.515371233</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175397</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000395</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,19 +26813,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757586</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022533</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>300.4837908236001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>26.03202314681209</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>162.9387553691136</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>151.361335334089</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>63.09924659732746</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,7 +27675,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>338.7978548973057</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>58.77464272172416</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>91.40365892901897</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>274.9183408758537</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>13.45133455526005</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>186.2092747608415</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767384</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730007</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342228</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166598</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190647</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745102</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177246</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405677</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378627</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168762</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,46 +31439,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.755972606796</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154674</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.7358189575959</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069565</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N12" t="n">
-        <v>742.935485982477</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31861,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O15" t="n">
-        <v>537.6437863443696</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32314,13 +32314,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543351</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>488.7223436347931</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663259</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>320.9147064709962</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>209.9499448422518</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>562.7107934893646</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294274</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225039</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.564649540734</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067511</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.005010945728</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376319</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949731</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637952</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402559</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939915</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091751</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.587496243485</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>508.7132618620049</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634696</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308547</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870599</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423492</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860246</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295071</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N12" t="n">
-        <v>611.5937738991437</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35509,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O15" t="n">
-        <v>395.0475418999251</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35962,13 +35962,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997605</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>350.1679638549189</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191356</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396396</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>189.5729943876629</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>71.39556506237764</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1485220.424728748</v>
+        <v>1486980.955031533</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>64.73079089713309</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>343.6990775316569</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.367844675690604</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>117.7511105323488</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>237.9193059650779</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.3760037453411</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>103.2588014327185</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>90.69811547110045</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>94.81275980261576</v>
       </c>
       <c r="D8" t="n">
-        <v>79.76470074482921</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>218.1043346164863</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1423,13 +1423,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>121.2558461704858</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,13 +1609,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>71.79687029691033</v>
+        <v>206.5509998577711</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>14.73874327217517</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>60.2569068526658</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>4.019807611472472</v>
       </c>
       <c r="F28" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>80.08971311158757</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>149.9095691544923</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,16 +3903,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>65.38324202937362</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>944.3110907974333</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="C2" t="n">
-        <v>944.3110907974333</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="D2" t="n">
-        <v>944.3110907974333</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>1009.695728067265</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>598.7098232776573</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>183.0050730019461</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X2" t="n">
-        <v>944.3110907974333</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="Y2" t="n">
-        <v>944.3110907974333</v>
+        <v>1395.483980665509</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.0457357641855</v>
+        <v>792.054313852967</v>
       </c>
       <c r="C4" t="n">
-        <v>604.0457357641855</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D4" t="n">
-        <v>604.0457357641855</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>456.1326421817923</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
-        <v>309.242694683882</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1517.505604385256</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>1228.387266889094</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>973.7027786832067</v>
       </c>
       <c r="W4" t="n">
-        <v>824.8383149077156</v>
+        <v>973.7027786832067</v>
       </c>
       <c r="X4" t="n">
-        <v>824.8383149077156</v>
+        <v>973.7027786832067</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.0457357641855</v>
+        <v>973.7027786832067</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="C5" t="n">
-        <v>1862.313924116173</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D5" t="n">
-        <v>1504.048225509423</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>1118.259972911178</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>707.2740681215707</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>291.5693178458596</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2229.179511082845</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.598450347025</v>
       </c>
       <c r="Y5" t="n">
-        <v>2231.276441056585</v>
+        <v>1975.598450347025</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>370.2996089082457</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1532.144300445488</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1532.144300445488</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1532.144300445488</v>
+        <v>1544.83186202288</v>
       </c>
       <c r="V7" t="n">
-        <v>1532.144300445488</v>
+        <v>1290.147373816993</v>
       </c>
       <c r="W7" t="n">
-        <v>1242.727130408528</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X7" t="n">
-        <v>1014.73757951051</v>
+        <v>772.7406528820155</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>551.9480737384854</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.50962791956</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,10 +4886,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5035,46 +5035,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,19 +5272,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.586158026164</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.510931370362</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5497,70 +5497,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101817</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>422.7903292978459</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>154.6822255254121</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5734,7 +5734,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5746,28 +5746,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5971,37 +5971,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6451,28 +6451,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,34 +6682,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,7 +6949,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556949</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>718.5507239167111</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1893.082977031346</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1638.398488825459</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1348.981318788498</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1120.991767890481</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>900.1991887469509</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>45.99097492814204</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>145.6085800303779</v>
+        <v>10.85445046951719</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>131.695219374394</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>142.4141550350967</v>
       </c>
       <c r="F28" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>68.52575990662478</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>186.7544012944544</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614293</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614296</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651769</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
         <v>513151.106165177</v>
@@ -26322,10 +26322,10 @@
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062536</v>
@@ -26334,10 +26334,10 @@
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062535</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062538</v>
@@ -26346,16 +26346,16 @@
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403381</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819086</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810787</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
         <v>9337.20035675659</v>
@@ -26438,13 +26438,13 @@
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
@@ -26453,13 +26453,13 @@
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831264.7235426902</v>
+        <v>-831264.7235426895</v>
       </c>
       <c r="C6" t="n">
-        <v>283487.06003323</v>
+        <v>283487.0600332297</v>
       </c>
       <c r="D6" t="n">
-        <v>124065.7900353378</v>
+        <v>124065.7900353377</v>
       </c>
       <c r="E6" t="n">
-        <v>68247.05356387795</v>
+        <v>68559.69489279921</v>
       </c>
       <c r="F6" t="n">
-        <v>393659.5153712331</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="G6" t="n">
-        <v>393659.5153712329</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="H6" t="n">
-        <v>393659.515371233</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="I6" t="n">
-        <v>393659.5153712328</v>
+        <v>393972.156700154</v>
       </c>
       <c r="J6" t="n">
-        <v>226054.3375612505</v>
+        <v>226366.9788901716</v>
       </c>
       <c r="K6" t="n">
-        <v>393659.5153712331</v>
+        <v>393972.1567001544</v>
       </c>
       <c r="L6" t="n">
-        <v>345365.5453630423</v>
+        <v>345678.1866919633</v>
       </c>
       <c r="M6" t="n">
-        <v>308604.4874357213</v>
+        <v>308917.1287646425</v>
       </c>
       <c r="N6" t="n">
-        <v>393659.5153712332</v>
+        <v>393972.1567001545</v>
       </c>
       <c r="O6" t="n">
-        <v>393659.5153712331</v>
+        <v>393972.1567001544</v>
       </c>
       <c r="P6" t="n">
-        <v>393659.515371233</v>
+        <v>393972.1567001543</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26792,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>236.2877616652723</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>26.03202314681209</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>162.9387553691136</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>102.9975854648631</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>63.09924659732746</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0.2821812348926471</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
@@ -27824,16 +27824,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>91.40365892901897</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>195.5290386501002</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>270.4601319683918</v>
       </c>
       <c r="D8" t="n">
-        <v>274.9183408758537</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28064,13 +28064,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>1.444614659682856</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
@@ -32086,10 +32086,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>488.7223436347931</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
-        <v>562.7107934893646</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35035,7 +35035,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
@@ -35734,10 +35734,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>350.1679638549189</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
